--- a/metafile/GBM_metafile.xlsx
+++ b/metafile/GBM_metafile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ieo5398\AppData\Local\Temp\scp03750\data\delcorvo\tools\DeSeq-Free\metafile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ieo5398\AppData\Local\Temp\scp42575\data\delcorvo\tools\DeSeq-Free\metafile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCA06F4-C193-428A-BA23-3673C39E77BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C898F939-FB38-4E30-AEBD-5F18C118AAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>sample</t>
   </si>
@@ -28,27 +28,24 @@
     <t>type</t>
   </si>
   <si>
+    <t>lane</t>
+  </si>
+  <si>
+    <t>fq1</t>
+  </si>
+  <si>
+    <t>fq2</t>
+  </si>
+  <si>
+    <t>lane1</t>
+  </si>
+  <si>
+    <t>lane2</t>
+  </si>
+  <si>
     <t>E06</t>
   </si>
   <si>
-    <t>E23</t>
-  </si>
-  <si>
-    <t>lane</t>
-  </si>
-  <si>
-    <t>fq1</t>
-  </si>
-  <si>
-    <t>fq2</t>
-  </si>
-  <si>
-    <t>lane1</t>
-  </si>
-  <si>
-    <t>lane2</t>
-  </si>
-  <si>
     <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52505_B-E06/S52505_B-E06_S16_L001_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -61,12 +58,6 @@
     <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52505_B-E06/S52505_B-E06_S16_L002_R2_001.fastq.gz</t>
   </si>
   <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52506_B-E23/S52506_B-E23_S22_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52506_B-E23/S52506_B-E23_S22_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52499_p-E06/S52499_p-E06_S19_L001_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -79,132 +70,6 @@
     <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52499_p-E06/S52499_p-E06_S19_L002_R2_001.fastq.gz</t>
   </si>
   <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52500_p-E23/S52500_p-E23_S15_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52500_p-E23/S52500_p-E23_S15_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52500_p-E23/S52500_p-E23_S15_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52500_p-E23/S52500_p-E23_S15_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52506_B-E23/S52506_B-E23_S22_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52506_B-E23/S52506_B-E23_S22_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>E27</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52507_B-E27/S52507_B-E27_S10_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52507_B-E27/S52507_B-E27_S10_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52507_B-E27/S52507_B-E27_S10_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52507_B-E27/S52507_B-E27_S10_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52964_BH7/S52964_BH7_S12_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52964_BH7/S52964_BH7_S12_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52964_BH7/S52964_BH7_S12_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52964_BH7/S52964_BH7_S12_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52967_BH8/S52967_BH8_S17_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52967_BH8/S52967_BH8_S17_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52967_BH8/S52967_BH8_S17_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52967_BH8/S52967_BH8_S17_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>C2-57</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52970_BC2-57/S52970_BC2-57_S11_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52970_BC2-57/S52970_BC2-57_S11_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52970_BC2-57/S52970_BC2-57_S11_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52970_BC2-57/S52970_BC2-57_S11_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52501_p-E27/S52501_p-E27_S5_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52501_p-E27/S52501_p-E27_S5_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52501_p-E27/S52501_p-E27_S5_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52501_p-E27/S52501_p-E27_S5_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52962_H7/S52962_H7_S9_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52962_H7/S52962_H7_S9_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52962_H7/S52962_H7_S9_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52962_H7/S52962_H7_S9_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52965_H8/S52965_H8_S2_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52965_H8/S52965_H8_S2_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52965_H8/S52965_H8_S2_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52965_H8/S52965_H8_S2_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52968_C2-57/S52968_C2-57_S20_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52968_C2-57/S52968_C2-57_S20_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52968_C2-57/S52968_C2-57_S20_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52968_C2-57/S52968_C2-57_S20_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52502_T-E06/S52502_T-E06_S3_L001_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -215,66 +80,6 @@
   </si>
   <si>
     <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52502_T-E06/S52502_T-E06_S3_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52503_T-E23/S52503_T-E23_S18_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52503_T-E23/S52503_T-E23_S18_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52503_T-E23/S52503_T-E23_S18_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52503_T-E23/S52503_T-E23_S18_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52504_T-E27/S52504_T-E27_S7_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52504_T-E27/S52504_T-E27_S7_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52504_T-E27/S52504_T-E27_S7_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52504_T-E27/S52504_T-E27_S7_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52963_TH7/S52963_TH7_S13_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52963_TH7/S52963_TH7_S13_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52963_TH7/S52963_TH7_S13_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52963_TH7/S52963_TH7_S13_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52966_TH8/S52966_TH8_S4_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52966_TH8/S52966_TH8_S4_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52966_TH8/S52966_TH8_S4_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52966_TH8/S52966_TH8_S4_L002_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52969_TC2-57/S52969_TC2-57_S21_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52969_TC2-57/S52969_TC2-57_S21_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52969_TC2-57/S52969_TC2-57_S21_L002_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/data/delcorvo/data/pelicci/230919_A00302_0562_BHJ7C3DRX3/Sample_S52969_TC2-57/S52969_TC2-57_S21_L002_R2_001.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -767,9 +572,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1125,645 +935,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="150.44140625" customWidth="1"/>
-    <col min="4" max="4" width="152.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="113.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
     </row>
